--- a/api_allocate_modular/outputs/excel/assignments_2025-10-04_00-07.xlsx
+++ b/api_allocate_modular/outputs/excel/assignments_2025-10-04_00-07.xlsx
@@ -545,18 +545,18 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="20" customWidth="1" min="3" max="3"/>
-    <col width="22" customWidth="1" min="4" max="4"/>
-    <col width="25" customWidth="1" min="5" max="5"/>
-    <col width="24" customWidth="1" min="6" max="6"/>
-    <col width="21" customWidth="1" min="7" max="7"/>
+    <col width="25" customWidth="1" min="3" max="3"/>
+    <col width="21" customWidth="1" min="4" max="4"/>
+    <col width="22" customWidth="1" min="5" max="5"/>
+    <col width="20" customWidth="1" min="6" max="6"/>
+    <col width="24" customWidth="1" min="7" max="7"/>
     <col width="33" customWidth="1" min="8" max="8"/>
     <col width="32" customWidth="1" min="10" max="10"/>
     <col width="24" customWidth="1" min="11" max="11"/>
     <col width="20" customWidth="1" min="12" max="12"/>
     <col width="22" customWidth="1" min="13" max="13"/>
-    <col width="21" customWidth="1" min="14" max="14"/>
-    <col width="25" customWidth="1" min="15" max="15"/>
+    <col width="25" customWidth="1" min="14" max="14"/>
+    <col width="19" customWidth="1" min="15" max="15"/>
     <col width="33" customWidth="1" min="16" max="16"/>
   </cols>
   <sheetData>
@@ -574,22 +574,22 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
+          <t>Driver: Bless Hwang</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>Driver: Olivia Chang</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Driver: Grace Park</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Driver: Manado 2nd Car</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>Driver: Bless Hwang</t>
         </is>
       </c>
       <c r="J2" s="4" t="inlineStr"/>
@@ -600,22 +600,22 @@
       </c>
       <c r="L2" s="6" t="inlineStr">
         <is>
+          <t>Driver: Jiwang Lee</t>
+        </is>
+      </c>
+      <c r="M2" s="6" t="inlineStr">
+        <is>
           <t>Driver: Aaron Long</t>
         </is>
       </c>
-      <c r="M2" s="6" t="inlineStr">
-        <is>
-          <t>Driver: Jiwang Lee</t>
-        </is>
-      </c>
       <c r="N2" s="7" t="inlineStr">
         <is>
+          <t>Driver: Jacob Deadlifts</t>
+        </is>
+      </c>
+      <c r="O2" s="7" t="inlineStr">
+        <is>
           <t>Driver: Josh Paik</t>
-        </is>
-      </c>
-      <c r="O2" s="7" t="inlineStr">
-        <is>
-          <t>Driver: Jacob Deadlifts</t>
         </is>
       </c>
     </row>
@@ -632,47 +632,47 @@
       </c>
       <c r="D3" s="9" t="inlineStr">
         <is>
+          <t>Joel Shim</t>
+        </is>
+      </c>
+      <c r="E3" s="9" t="inlineStr">
+        <is>
           <t>Isabelle Li</t>
         </is>
       </c>
-      <c r="E3" s="9" t="inlineStr">
-        <is>
-          <t>Sam Ko</t>
-        </is>
-      </c>
       <c r="F3" s="8" t="inlineStr">
         <is>
+          <t>Lindsey Ro</t>
+        </is>
+      </c>
+      <c r="G3" s="8" t="inlineStr">
+        <is>
           <t>Chae Moon</t>
         </is>
       </c>
-      <c r="G3" s="8" t="inlineStr">
-        <is>
-          <t>Samuel Wen</t>
-        </is>
-      </c>
       <c r="J3" s="10" t="inlineStr">
         <is>
           <t>Back home 💙</t>
         </is>
       </c>
-      <c r="L3" s="11" t="inlineStr">
-        <is>
-          <t>Jane Yoo</t>
-        </is>
-      </c>
-      <c r="M3" s="1" t="inlineStr">
+      <c r="L3" s="1" t="inlineStr">
         <is>
           <t>Jay Jung</t>
         </is>
       </c>
-      <c r="N3" s="1" t="inlineStr">
+      <c r="M3" s="11" t="inlineStr">
+        <is>
+          <t>Grace Sowon Park</t>
+        </is>
+      </c>
+      <c r="N3" s="8" t="inlineStr">
+        <is>
+          <t>Jasmine Cheng</t>
+        </is>
+      </c>
+      <c r="O3" s="1" t="inlineStr">
         <is>
           <t>Ben Kim</t>
-        </is>
-      </c>
-      <c r="O3" s="8" t="inlineStr">
-        <is>
-          <t>Jasmine Cheng</t>
         </is>
       </c>
     </row>
@@ -684,7 +684,7 @@
       </c>
       <c r="C4" s="8" t="inlineStr">
         <is>
-          <t>Eugene Seo</t>
+          <t>Gabriel Ni</t>
         </is>
       </c>
       <c r="D4" s="9" t="inlineStr">
@@ -694,17 +694,17 @@
       </c>
       <c r="E4" s="9" t="inlineStr">
         <is>
-          <t>Claire Doh</t>
+          <t>Aaron duong</t>
         </is>
       </c>
       <c r="F4" s="8" t="inlineStr">
         <is>
-          <t>Lindsey Ro</t>
+          <t>Ariel Bahn</t>
         </is>
       </c>
       <c r="G4" s="8" t="inlineStr">
         <is>
-          <t>Zoe Li</t>
+          <t>Jasmine Cheng</t>
         </is>
       </c>
       <c r="J4" s="12" t="inlineStr">
@@ -712,24 +712,24 @@
           <t>Lunch 💛</t>
         </is>
       </c>
-      <c r="L4" s="11" t="inlineStr">
-        <is>
-          <t>Grace Sowon Park</t>
-        </is>
-      </c>
-      <c r="M4" s="1" t="inlineStr">
+      <c r="L4" s="1" t="inlineStr">
         <is>
           <t>Daniel Kim</t>
         </is>
       </c>
-      <c r="N4" s="11" t="inlineStr">
+      <c r="M4" s="11" t="inlineStr">
+        <is>
+          <t>Jane Yoo</t>
+        </is>
+      </c>
+      <c r="N4" s="8" t="inlineStr">
+        <is>
+          <t>Ariel Bahn</t>
+        </is>
+      </c>
+      <c r="O4" s="11" t="inlineStr">
         <is>
           <t>Shayla Nguyen</t>
-        </is>
-      </c>
-      <c r="O4" s="8" t="inlineStr">
-        <is>
-          <t>Ariel Bahn</t>
         </is>
       </c>
     </row>
@@ -741,12 +741,12 @@
       </c>
       <c r="C5" s="8" t="inlineStr">
         <is>
-          <t>Gabriel Ni</t>
+          <t>Eugene Seo</t>
         </is>
       </c>
       <c r="D5" s="9" t="inlineStr">
         <is>
-          <t>Stella Son</t>
+          <t>Joanna Wei</t>
         </is>
       </c>
       <c r="E5" s="9" t="inlineStr">
@@ -756,12 +756,12 @@
       </c>
       <c r="F5" s="8" t="inlineStr">
         <is>
-          <t>Ariel Bahn</t>
+          <t>Christina Ko</t>
         </is>
       </c>
       <c r="G5" s="8" t="inlineStr">
         <is>
-          <t>Jasmine Cheng</t>
+          <t>Zoe Li</t>
         </is>
       </c>
       <c r="J5" s="13" t="inlineStr">
@@ -769,17 +769,17 @@
           <t>Lunch 💛 (Manado)</t>
         </is>
       </c>
-      <c r="L5" s="11" t="inlineStr">
+      <c r="L5" s="1" t="inlineStr">
+        <is>
+          <t>Daniel Kuo</t>
+        </is>
+      </c>
+      <c r="M5" s="11" t="inlineStr">
         <is>
           <t>Khang Le</t>
         </is>
       </c>
-      <c r="M5" s="1" t="inlineStr">
-        <is>
-          <t>Daniel Kuo</t>
-        </is>
-      </c>
-      <c r="N5" s="9" t="inlineStr">
+      <c r="O5" s="9" t="inlineStr">
         <is>
           <t>Phillip Seo</t>
         </is>
@@ -793,40 +793,40 @@
       </c>
       <c r="D6" s="9" t="inlineStr">
         <is>
+          <t>Irene Jung</t>
+        </is>
+      </c>
+      <c r="E6" s="9" t="inlineStr">
+        <is>
+          <t>Sam Ko</t>
+        </is>
+      </c>
+      <c r="F6" s="9" t="inlineStr">
+        <is>
+          <t>Joann Jung</t>
+        </is>
+      </c>
+      <c r="G6" s="8" t="inlineStr">
+        <is>
+          <t>Samuel Wen</t>
+        </is>
+      </c>
+      <c r="J6" s="14" t="inlineStr">
+        <is>
+          <t>Lunch 💛 (PP)</t>
+        </is>
+      </c>
+      <c r="L6" s="11" t="inlineStr">
+        <is>
+          <t>Karina Pan</t>
+        </is>
+      </c>
+      <c r="M6" s="9" t="inlineStr">
+        <is>
           <t>Aaron duong</t>
         </is>
       </c>
-      <c r="E6" s="9" t="inlineStr">
-        <is>
-          <t>Joann Jung</t>
-        </is>
-      </c>
-      <c r="F6" s="9" t="inlineStr">
-        <is>
-          <t>Joanna Wei</t>
-        </is>
-      </c>
-      <c r="G6" s="8" t="inlineStr">
-        <is>
-          <t>Christina Ko</t>
-        </is>
-      </c>
-      <c r="J6" s="14" t="inlineStr">
-        <is>
-          <t>Lunch 💛 (PP)</t>
-        </is>
-      </c>
-      <c r="L6" s="9" t="inlineStr">
-        <is>
-          <t>Aaron duong</t>
-        </is>
-      </c>
-      <c r="M6" s="11" t="inlineStr">
-        <is>
-          <t>Karina Pan</t>
-        </is>
-      </c>
-      <c r="N6" s="9" t="inlineStr">
+      <c r="O6" s="9" t="inlineStr">
         <is>
           <t>Isabelle Li</t>
         </is>
@@ -849,19 +849,19 @@
     <row r="9">
       <c r="C9" s="17" t="inlineStr">
         <is>
+          <t>Driver: Jacob Deadlifts</t>
+        </is>
+      </c>
+      <c r="D9" s="17" t="inlineStr">
+        <is>
           <t>Driver: Josh Paik</t>
         </is>
       </c>
-      <c r="D9" s="17" t="inlineStr">
+      <c r="E9" s="17" t="inlineStr">
         <is>
           <t>Driver: Kaitlyn Kim</t>
         </is>
       </c>
-      <c r="E9" s="17" t="inlineStr">
-        <is>
-          <t>Driver: Jacob Deadlifts</t>
-        </is>
-      </c>
       <c r="F9" s="18" t="inlineStr">
         <is>
           <t>Driver: Aaron Long</t>
@@ -899,193 +899,193 @@
       </c>
     </row>
     <row r="10">
-      <c r="C10" s="1" t="inlineStr">
+      <c r="C10" s="11" t="inlineStr">
+        <is>
+          <t>Faith Chen</t>
+        </is>
+      </c>
+      <c r="D10" s="1" t="inlineStr">
+        <is>
+          <t>Daniel Kim</t>
+        </is>
+      </c>
+      <c r="E10" s="11" t="inlineStr">
+        <is>
+          <t>Karina Pan</t>
+        </is>
+      </c>
+      <c r="F10" s="9" t="inlineStr">
+        <is>
+          <t>Stella Son</t>
+        </is>
+      </c>
+      <c r="H10" s="11" t="inlineStr">
+        <is>
+          <t>Darius Ajebon — No valid driver</t>
+        </is>
+      </c>
+      <c r="K10" s="11" t="inlineStr">
+        <is>
+          <t>claudia lin</t>
+        </is>
+      </c>
+      <c r="L10" s="8" t="inlineStr">
+        <is>
+          <t>Chae Moon</t>
+        </is>
+      </c>
+      <c r="M10" s="8" t="inlineStr">
+        <is>
+          <t>Lindsey Ro</t>
+        </is>
+      </c>
+      <c r="P10" s="8" t="inlineStr">
+        <is>
+          <t>Susanna Tang — No valid driver</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="C11" s="11" t="inlineStr">
+        <is>
+          <t>Grace Sowon Park</t>
+        </is>
+      </c>
+      <c r="D11" s="1" t="inlineStr">
+        <is>
+          <t>Ben Kim</t>
+        </is>
+      </c>
+      <c r="E11" s="11" t="inlineStr">
+        <is>
+          <t>claudia lin</t>
+        </is>
+      </c>
+      <c r="F11" s="9" t="inlineStr">
+        <is>
+          <t>Sehyun Jung</t>
+        </is>
+      </c>
+      <c r="H11" s="11" t="inlineStr">
+        <is>
+          <t>helena song🐟 — No valid driver</t>
+        </is>
+      </c>
+      <c r="K11" s="11" t="inlineStr">
+        <is>
+          <t>Faith Chen</t>
+        </is>
+      </c>
+      <c r="L11" s="9" t="inlineStr">
+        <is>
+          <t>Stella Son</t>
+        </is>
+      </c>
+      <c r="M11" s="8" t="inlineStr">
+        <is>
+          <t>Christina Ko</t>
+        </is>
+      </c>
+      <c r="P11" s="8" t="inlineStr">
+        <is>
+          <t>Gabriel Ni — No valid driver</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="C12" s="11" t="inlineStr">
+        <is>
+          <t>Jane Yoo</t>
+        </is>
+      </c>
+      <c r="D12" s="1" t="inlineStr">
+        <is>
+          <t>Daniel Kuo</t>
+        </is>
+      </c>
+      <c r="F12" s="9" t="inlineStr">
+        <is>
+          <t>Phillip Seo</t>
+        </is>
+      </c>
+      <c r="K12" s="9" t="inlineStr">
+        <is>
+          <t>Joel Shim</t>
+        </is>
+      </c>
+      <c r="L12" s="9" t="inlineStr">
+        <is>
+          <t>Kyle Hwang</t>
+        </is>
+      </c>
+      <c r="M12" s="9" t="inlineStr">
+        <is>
+          <t>Sehyun Jung</t>
+        </is>
+      </c>
+      <c r="P12" s="8" t="inlineStr">
+        <is>
+          <t>Zoe Li — No valid driver</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="C13" s="11" t="inlineStr">
+        <is>
+          <t>Khang Le</t>
+        </is>
+      </c>
+      <c r="D13" s="1" t="inlineStr">
         <is>
           <t>Jay Jung</t>
         </is>
       </c>
-      <c r="D10" s="11" t="inlineStr">
-        <is>
-          <t>claudia lin</t>
-        </is>
-      </c>
-      <c r="E10" s="11" t="inlineStr">
-        <is>
-          <t>Faith Chen</t>
-        </is>
-      </c>
-      <c r="F10" s="9" t="inlineStr">
-        <is>
-          <t>Phillip Seo</t>
-        </is>
-      </c>
-      <c r="H10" s="11" t="inlineStr">
-        <is>
-          <t>Darius Ajebon — No valid driver</t>
-        </is>
-      </c>
-      <c r="K10" s="11" t="inlineStr">
-        <is>
-          <t>claudia lin</t>
-        </is>
-      </c>
-      <c r="L10" s="8" t="inlineStr">
-        <is>
-          <t>Chae Moon</t>
-        </is>
-      </c>
-      <c r="M10" s="8" t="inlineStr">
-        <is>
-          <t>Christina Ko</t>
-        </is>
-      </c>
-      <c r="P10" s="8" t="inlineStr">
+      <c r="F13" s="9" t="inlineStr">
+        <is>
+          <t>Claire Doh</t>
+        </is>
+      </c>
+      <c r="K13" s="9" t="inlineStr">
+        <is>
+          <t>Joanna Wei</t>
+        </is>
+      </c>
+      <c r="L13" s="9" t="inlineStr">
+        <is>
+          <t>Irene Jung</t>
+        </is>
+      </c>
+      <c r="P13" s="8" t="inlineStr">
         <is>
           <t>Eugene Seo — No valid driver</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="C11" s="1" t="inlineStr">
-        <is>
-          <t>Ben Kim</t>
-        </is>
-      </c>
-      <c r="D11" s="11" t="inlineStr">
-        <is>
-          <t>Karina Pan</t>
-        </is>
-      </c>
-      <c r="E11" s="11" t="inlineStr">
-        <is>
-          <t>Jane Yoo</t>
-        </is>
-      </c>
-      <c r="F11" s="9" t="inlineStr">
-        <is>
-          <t>Joel Shim</t>
-        </is>
-      </c>
-      <c r="H11" s="11" t="inlineStr">
-        <is>
-          <t>helena song🐟 — No valid driver</t>
-        </is>
-      </c>
-      <c r="K11" s="11" t="inlineStr">
-        <is>
-          <t>Faith Chen</t>
-        </is>
-      </c>
-      <c r="L11" s="9" t="inlineStr">
-        <is>
-          <t>Irene Jung</t>
-        </is>
-      </c>
-      <c r="M11" s="8" t="inlineStr">
-        <is>
-          <t>Lindsey Ro</t>
-        </is>
-      </c>
-      <c r="P11" s="8" t="inlineStr">
-        <is>
-          <t>Samuel Wen — No valid driver</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="C12" s="1" t="inlineStr">
-        <is>
-          <t>Daniel Kim</t>
-        </is>
-      </c>
-      <c r="E12" s="11" t="inlineStr">
-        <is>
-          <t>Grace Sowon Park</t>
-        </is>
-      </c>
-      <c r="F12" s="9" t="inlineStr">
-        <is>
-          <t>Irene Jung</t>
-        </is>
-      </c>
-      <c r="K12" s="9" t="inlineStr">
-        <is>
-          <t>Joel Shim</t>
-        </is>
-      </c>
-      <c r="L12" s="9" t="inlineStr">
-        <is>
-          <t>Stella Son</t>
-        </is>
-      </c>
-      <c r="M12" s="9" t="inlineStr">
-        <is>
-          <t>Sehyun Jung</t>
-        </is>
-      </c>
-      <c r="P12" s="8" t="inlineStr">
-        <is>
-          <t>Zoe Li — No valid driver</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="C13" s="1" t="inlineStr">
-        <is>
-          <t>Daniel Kuo</t>
-        </is>
-      </c>
-      <c r="E13" s="11" t="inlineStr">
-        <is>
-          <t>Khang Le</t>
-        </is>
-      </c>
-      <c r="F13" s="9" t="inlineStr">
-        <is>
-          <t>Sehyun Jung</t>
-        </is>
-      </c>
-      <c r="K13" s="9" t="inlineStr">
-        <is>
-          <t>Joanna Wei</t>
-        </is>
-      </c>
-      <c r="L13" s="9" t="inlineStr">
-        <is>
-          <t>Kyle Hwang</t>
-        </is>
-      </c>
-      <c r="P13" s="8" t="inlineStr">
-        <is>
-          <t>Susanna Tang — No valid driver</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="P14" s="8" t="inlineStr">
         <is>
-          <t>Gabriel Ni — No valid driver</t>
+          <t>Samuel Wen — No valid driver</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="P15" s="11" t="inlineStr">
         <is>
-          <t>helena song🐟 — No valid driver</t>
+          <t>Darius Ajebon — No valid driver</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="P16" s="11" t="inlineStr">
         <is>
-          <t>Darius Ajebon — No valid driver</t>
+          <t>helena song🐟 — No valid driver</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="P17" s="9" t="inlineStr">
         <is>
-          <t>Claire Doh — No valid driver</t>
+          <t>Cara Lee — No valid driver</t>
         </is>
       </c>
     </row>
@@ -1099,7 +1099,7 @@
     <row r="19">
       <c r="P19" s="9" t="inlineStr">
         <is>
-          <t>Cara Lee — No valid driver</t>
+          <t>Claire Doh — No valid driver</t>
         </is>
       </c>
     </row>
